--- a/LF/TAS/Nigeria/2024/ng_lf_tas_202402_3_resultat_fts_jgw.xlsx
+++ b/LF/TAS/Nigeria/2024/ng_lf_tas_202402_3_resultat_fts_jgw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49467565-B957-44E7-B912-0AFBF7ACB68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826577E0-A685-4554-9582-7DE11C80A488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
   <si>
     <t>type</t>
   </si>
@@ -150,18 +150,12 @@
     <t>Give reason for invalid test</t>
   </si>
   <si>
-    <t xml:space="preserve">${d_result1} = 'Invalid' </t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
     <t>d_why_invalid_other1</t>
   </si>
   <si>
-    <t>selected(${d_why_invalid1},'Other')</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -204,16 +198,10 @@
     <t>select_one inval_reasons</t>
   </si>
   <si>
-    <t xml:space="preserve">${d_result2} = 'Invalid' </t>
-  </si>
-  <si>
     <t>d_why_invalid_other2</t>
   </si>
   <si>
     <t>Give 'Other' reason for invalid test 2</t>
-  </si>
-  <si>
-    <t>selected(${d_why_invalid2},'Other')</t>
   </si>
   <si>
     <t>d_display_result2</t>
@@ -364,12 +352,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>(2024 Fev) Nigeria - 3. TAS1 LF FTS Results Form - Jigawa</t>
-  </si>
-  <si>
-    <t>ng_lf_tas_202402_3_resultat_fts_jgw</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -416,6 +398,33 @@
   </si>
   <si>
     <t>Select the participant ID</t>
+  </si>
+  <si>
+    <t>(2024 Fev) Nigeria - 3. TAS1 LF FTS Results Form - Jigawa V1</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202402_3_resultat_fts_jgw_v1</t>
+  </si>
+  <si>
+    <t>${d_add_results} = 'Yes'</t>
+  </si>
+  <si>
+    <t>${d_result1} = 'Invalid'  and ${d_add_results} = 'Yes'</t>
+  </si>
+  <si>
+    <t>selected(${d_why_invalid1},'Other')and ${d_add_results} = 'Yes'</t>
+  </si>
+  <si>
+    <t>${d_result1} = 'Positive' or ${d_result1} = 'Invalid' and ${d_add_results} = 'Yes'</t>
+  </si>
+  <si>
+    <t>(${d_result1} = 'Positive' or ${d_result1} = 'Invalid' ) and ${d_add_results} = 'Yes'</t>
+  </si>
+  <si>
+    <t>${d_result2} = 'Invalid' and ${d_add_results} = 'Yes'</t>
+  </si>
+  <si>
+    <t>selected(${d_why_invalid2},'Other')and ${d_add_results} = 'Yes'</t>
   </si>
 </sst>
 </file>
@@ -948,7 +957,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10:G10"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1040,7 +1049,7 @@
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>20</v>
@@ -1065,7 +1074,7 @@
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>23</v>
@@ -1090,7 +1099,7 @@
     </row>
     <row r="5" spans="1:14" s="8" customFormat="1" ht="31.5">
       <c r="A5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>26</v>
@@ -1119,10 +1128,10 @@
     </row>
     <row r="6" spans="1:14" s="28" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
@@ -1131,7 +1140,7 @@
       <c r="G6" s="27"/>
       <c r="H6" s="23"/>
       <c r="I6" s="22" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -1140,13 +1149,13 @@
     </row>
     <row r="7" spans="1:14" s="28" customFormat="1">
       <c r="A7" s="29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="29"/>
@@ -1162,10 +1171,10 @@
     </row>
     <row r="8" spans="1:14" s="28" customFormat="1">
       <c r="A8" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -1174,7 +1183,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="23"/>
       <c r="I8" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -1183,10 +1192,10 @@
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1">
       <c r="A9" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
@@ -1195,7 +1204,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="23"/>
       <c r="I9" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -1204,13 +1213,13 @@
     </row>
     <row r="10" spans="1:14" s="28" customFormat="1">
       <c r="A10" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="22"/>
@@ -1233,17 +1242,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="14"/>
       <c r="F11" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
         <v>19</v>
@@ -1266,7 +1277,9 @@
       <c r="E12" s="13"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13" t="s">
         <v>19</v>
@@ -1291,7 +1304,9 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="I13" s="14"/>
       <c r="J13" s="13" t="s">
         <v>19</v>
@@ -1315,7 +1330,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="18"/>
       <c r="H14" s="14" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13" t="s">
@@ -1325,12 +1340,12 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1">
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="31.5">
       <c r="A15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>41</v>
@@ -1340,7 +1355,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="18"/>
       <c r="H15" s="14" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13" t="s">
@@ -1352,19 +1367,21 @@
     </row>
     <row r="16" spans="1:14" s="8" customFormat="1">
       <c r="A16" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="I16" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>19</v>
@@ -1375,20 +1392,20 @@
     </row>
     <row r="17" spans="1:13" s="8" customFormat="1" ht="63">
       <c r="A17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="18"/>
       <c r="H17" s="14" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1396,22 +1413,22 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" s="8" customFormat="1">
+    <row r="18" spans="1:13" s="8" customFormat="1" ht="31.5">
       <c r="A18" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="18"/>
       <c r="H18" s="14" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13" t="s">
@@ -1421,15 +1438,15 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="31.5">
       <c r="A19" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>38</v>
@@ -1438,7 +1455,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="21"/>
       <c r="H19" s="14" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="13" t="s">
@@ -1453,19 +1470,19 @@
         <v>39</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="21"/>
       <c r="H20" s="14" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="13" t="s">
@@ -1475,24 +1492,24 @@
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" ht="31.5">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="21"/>
       <c r="H21" s="14" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="13" t="s">
@@ -1504,10 +1521,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -1515,10 +1532,10 @@
       <c r="F22" s="19"/>
       <c r="G22" s="21"/>
       <c r="H22" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -1527,42 +1544,42 @@
     </row>
     <row r="23" spans="1:13" ht="56.25" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="39" customFormat="1">
       <c r="A26" s="22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -1579,18 +1596,18 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD75"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1617,7 +1634,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1626,167 +1643,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3038,12 +3055,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="48.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
@@ -3051,27 +3068,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>

--- a/LF/TAS/Nigeria/2024/ng_lf_tas_202402_3_resultat_fts_jgw.xlsx
+++ b/LF/TAS/Nigeria/2024/ng_lf_tas_202402_3_resultat_fts_jgw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFF839-5FB6-453A-82C9-55D0447F1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EDCF6F-FF8F-4F10-8B65-8D0D69690EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,10 +452,10 @@
     <t>d_nd_med_taked</t>
   </si>
   <si>
-    <t>${d_swallowed_lf_med} = 'Positive'</t>
-  </si>
-  <si>
     <t>ng_fts_202402_v3</t>
+  </si>
+  <si>
+    <t>${d_swallowed_lf_med} = 'Yes'</t>
   </si>
 </sst>
 </file>
@@ -980,10 +980,10 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:G5"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1175,7 +1175,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>112</v>
@@ -1649,7 +1649,7 @@
         <v>134</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="27" t="s">
